--- a/Code/Results/Cases/Case_5_123/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_123/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012456484939477</v>
+        <v>1.037657214017382</v>
       </c>
       <c r="D2">
-        <v>1.026506605570065</v>
+        <v>1.03962185197878</v>
       </c>
       <c r="E2">
-        <v>1.025401734843748</v>
+        <v>1.045816212972785</v>
       </c>
       <c r="F2">
-        <v>1.032120463642902</v>
+        <v>1.055268759670722</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047073127617186</v>
+        <v>1.039401280020186</v>
       </c>
       <c r="J2">
-        <v>1.034270902469614</v>
+        <v>1.042758894051824</v>
       </c>
       <c r="K2">
-        <v>1.037608610972353</v>
+        <v>1.042406517694913</v>
       </c>
       <c r="L2">
-        <v>1.036518172354057</v>
+        <v>1.048583392152967</v>
       </c>
       <c r="M2">
-        <v>1.043149736408041</v>
+        <v>1.058009683342602</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016347715534653</v>
+        <v>1.038489636446298</v>
       </c>
       <c r="D3">
-        <v>1.029235636119952</v>
+        <v>1.040226279985468</v>
       </c>
       <c r="E3">
-        <v>1.028668669787652</v>
+        <v>1.046567634715181</v>
       </c>
       <c r="F3">
-        <v>1.035819635003061</v>
+        <v>1.056127261425557</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048133570391481</v>
+        <v>1.039584969961564</v>
       </c>
       <c r="J3">
-        <v>1.03640243334035</v>
+        <v>1.043236374408762</v>
       </c>
       <c r="K3">
-        <v>1.039507623082904</v>
+        <v>1.042821744567824</v>
       </c>
       <c r="L3">
-        <v>1.038947413640065</v>
+        <v>1.049146487206007</v>
       </c>
       <c r="M3">
-        <v>1.046013826806028</v>
+        <v>1.058681477803562</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018820416292622</v>
+        <v>1.039028952526641</v>
       </c>
       <c r="D4">
-        <v>1.030972788732035</v>
+        <v>1.040617925214927</v>
       </c>
       <c r="E4">
-        <v>1.030750328729982</v>
+        <v>1.047054865859398</v>
       </c>
       <c r="F4">
-        <v>1.038176629179638</v>
+        <v>1.056683970986044</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048799666530669</v>
+        <v>1.039702999176619</v>
       </c>
       <c r="J4">
-        <v>1.037754645912556</v>
+        <v>1.043545347898728</v>
       </c>
       <c r="K4">
-        <v>1.040711235927657</v>
+        <v>1.043090267475393</v>
       </c>
       <c r="L4">
-        <v>1.040491266443271</v>
+        <v>1.049511191686241</v>
       </c>
       <c r="M4">
-        <v>1.047835135823266</v>
+        <v>1.059116729328961</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019849450591993</v>
+        <v>1.039255842842392</v>
       </c>
       <c r="D5">
-        <v>1.031696391596047</v>
+        <v>1.040782700347064</v>
       </c>
       <c r="E5">
-        <v>1.031617957215049</v>
+        <v>1.047259937991737</v>
       </c>
       <c r="F5">
-        <v>1.039159006008421</v>
+        <v>1.056918297341616</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049074974144055</v>
+        <v>1.039752419123312</v>
       </c>
       <c r="J5">
-        <v>1.038316806422704</v>
+        <v>1.043675241870247</v>
       </c>
       <c r="K5">
-        <v>1.041211347923747</v>
+        <v>1.043203115753319</v>
       </c>
       <c r="L5">
-        <v>1.041133768161083</v>
+        <v>1.049664594404024</v>
       </c>
       <c r="M5">
-        <v>1.048593372888186</v>
+        <v>1.0592998403987</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020021624187377</v>
+        <v>1.039293948165491</v>
       </c>
       <c r="D6">
-        <v>1.031817500076989</v>
+        <v>1.040810374240537</v>
       </c>
       <c r="E6">
-        <v>1.031763202338444</v>
+        <v>1.0472943845334</v>
       </c>
       <c r="F6">
-        <v>1.039323460195375</v>
+        <v>1.056957658460994</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049120925264073</v>
+        <v>1.039760705228033</v>
       </c>
       <c r="J6">
-        <v>1.038410830216104</v>
+        <v>1.043697051690712</v>
       </c>
       <c r="K6">
-        <v>1.041294977687014</v>
+        <v>1.043222061166899</v>
       </c>
       <c r="L6">
-        <v>1.041241268858667</v>
+        <v>1.049690356099561</v>
       </c>
       <c r="M6">
-        <v>1.048720253745679</v>
+        <v>1.05933059320536</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018834207088517</v>
+        <v>1.039031983612368</v>
       </c>
       <c r="D7">
-        <v>1.030982483628792</v>
+        <v>1.04062012644964</v>
       </c>
       <c r="E7">
-        <v>1.030761951207069</v>
+        <v>1.047057605101972</v>
       </c>
       <c r="F7">
-        <v>1.038189788818696</v>
+        <v>1.056687100946338</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048803363632949</v>
+        <v>1.039703660313302</v>
       </c>
       <c r="J7">
-        <v>1.037762182111721</v>
+        <v>1.043547083544006</v>
       </c>
       <c r="K7">
-        <v>1.040717941397855</v>
+        <v>1.043091775513446</v>
       </c>
       <c r="L7">
-        <v>1.040499877027998</v>
+        <v>1.049513241144624</v>
       </c>
       <c r="M7">
-        <v>1.047845296393588</v>
+        <v>1.059119175554113</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013781102718649</v>
+        <v>1.037938392608946</v>
       </c>
       <c r="D8">
-        <v>1.027434948678458</v>
+        <v>1.039826008399547</v>
       </c>
       <c r="E8">
-        <v>1.026512629326183</v>
+        <v>1.046069948995897</v>
       </c>
       <c r="F8">
-        <v>1.033378359233148</v>
+        <v>1.055558644379338</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047435721556376</v>
+        <v>1.039463530413806</v>
       </c>
       <c r="J8">
-        <v>1.034996959529026</v>
+        <v>1.042920257554019</v>
       </c>
       <c r="K8">
-        <v>1.038255689878306</v>
+        <v>1.042546877242584</v>
       </c>
       <c r="L8">
-        <v>1.037345057720719</v>
+        <v>1.048773620578193</v>
       </c>
       <c r="M8">
-        <v>1.044124411989628</v>
+        <v>1.05823660337743</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.004515352785912</v>
+        <v>1.036016652681914</v>
       </c>
       <c r="D9">
-        <v>1.02095548711456</v>
+        <v>1.038430884260314</v>
       </c>
       <c r="E9">
-        <v>1.01876715784535</v>
+        <v>1.044337399349817</v>
       </c>
       <c r="F9">
-        <v>1.024607231434149</v>
+        <v>1.053579449988949</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044867800400661</v>
+        <v>1.039034062500034</v>
       </c>
       <c r="J9">
-        <v>1.029909663735495</v>
+        <v>1.041815857817631</v>
       </c>
       <c r="K9">
-        <v>1.033717485125709</v>
+        <v>1.041585552519121</v>
       </c>
       <c r="L9">
-        <v>1.031562916118519</v>
+        <v>1.04747301719504</v>
       </c>
       <c r="M9">
-        <v>1.037313301929926</v>
+        <v>1.056685727941889</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9980723576506518</v>
+        <v>1.0347391625163</v>
       </c>
       <c r="D10">
-        <v>1.016470143894243</v>
+        <v>1.037503740256265</v>
       </c>
       <c r="E10">
-        <v>1.013414906155415</v>
+        <v>1.04318774097839</v>
       </c>
       <c r="F10">
-        <v>1.018544890449263</v>
+        <v>1.052266352246686</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043043518976287</v>
+        <v>1.038743538928407</v>
       </c>
       <c r="J10">
-        <v>1.02636266509448</v>
+        <v>1.041079768402846</v>
       </c>
       <c r="K10">
-        <v>1.03054825882991</v>
+        <v>1.040943974733442</v>
       </c>
       <c r="L10">
-        <v>1.027546102175417</v>
+        <v>1.046607853648552</v>
       </c>
       <c r="M10">
-        <v>1.032587193899812</v>
+        <v>1.055654822324959</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9952139961495157</v>
+        <v>1.034186886995081</v>
       </c>
       <c r="D11">
-        <v>1.014485735710314</v>
+        <v>1.037102996137232</v>
       </c>
       <c r="E11">
-        <v>1.011048937589089</v>
+        <v>1.042691224849923</v>
       </c>
       <c r="F11">
-        <v>1.015864565220561</v>
+        <v>1.051699301326371</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042225479317406</v>
+        <v>1.038616749192022</v>
       </c>
       <c r="J11">
-        <v>1.024787242852382</v>
+        <v>1.040761091981188</v>
       </c>
       <c r="K11">
-        <v>1.029139546774017</v>
+        <v>1.040666015512842</v>
       </c>
       <c r="L11">
-        <v>1.025765452432853</v>
+        <v>1.046233698886381</v>
       </c>
       <c r="M11">
-        <v>1.030493374861886</v>
+        <v>1.055209164296703</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9941414892518364</v>
+        <v>1.033981882132093</v>
       </c>
       <c r="D12">
-        <v>1.013742031692736</v>
+        <v>1.036954251225275</v>
       </c>
       <c r="E12">
-        <v>1.010162508519087</v>
+        <v>1.042506992928689</v>
       </c>
       <c r="F12">
-        <v>1.014860278181157</v>
+        <v>1.051488905136042</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041917266366156</v>
+        <v>1.038569505658709</v>
       </c>
       <c r="J12">
-        <v>1.024195878090753</v>
+        <v>1.040642730978104</v>
       </c>
       <c r="K12">
-        <v>1.028610608213139</v>
+        <v>1.040562747548167</v>
       </c>
       <c r="L12">
-        <v>1.025097566861168</v>
+        <v>1.046094792784868</v>
       </c>
       <c r="M12">
-        <v>1.029708211001429</v>
+        <v>1.055043738591739</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9943720418563976</v>
+        <v>1.034025850240929</v>
       </c>
       <c r="D13">
-        <v>1.013901862062413</v>
+        <v>1.036986152538651</v>
       </c>
       <c r="E13">
-        <v>1.010353000119341</v>
+        <v>1.042546502388172</v>
       </c>
       <c r="F13">
-        <v>1.015076101091154</v>
+        <v>1.051534025312192</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041983578452908</v>
+        <v>1.038579646250792</v>
       </c>
       <c r="J13">
-        <v>1.024323011647472</v>
+        <v>1.040668119358979</v>
       </c>
       <c r="K13">
-        <v>1.028724327858195</v>
+        <v>1.040584899831161</v>
       </c>
       <c r="L13">
-        <v>1.0252411278639</v>
+        <v>1.046124585349218</v>
       </c>
       <c r="M13">
-        <v>1.029876972495241</v>
+        <v>1.055079217892445</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9951255653382752</v>
+        <v>1.034169938468171</v>
       </c>
       <c r="D14">
-        <v>1.014424397243428</v>
+        <v>1.037090698596249</v>
       </c>
       <c r="E14">
-        <v>1.010975822157976</v>
+        <v>1.042675992166666</v>
       </c>
       <c r="F14">
-        <v>1.015781730233188</v>
+        <v>1.051681905171796</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042200092006863</v>
+        <v>1.038612847045454</v>
       </c>
       <c r="J14">
-        <v>1.024738488026324</v>
+        <v>1.040751308020078</v>
       </c>
       <c r="K14">
-        <v>1.029095941672086</v>
+        <v>1.040657479782593</v>
       </c>
       <c r="L14">
-        <v>1.02571037841475</v>
+        <v>1.046222215394603</v>
       </c>
       <c r="M14">
-        <v>1.030428626303695</v>
+        <v>1.055195487871212</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9955883917994591</v>
+        <v>1.034258733901729</v>
       </c>
       <c r="D15">
-        <v>1.014745464895493</v>
+        <v>1.037155127410193</v>
       </c>
       <c r="E15">
-        <v>1.011358545717096</v>
+        <v>1.042755801159342</v>
       </c>
       <c r="F15">
-        <v>1.016215327509782</v>
+        <v>1.051773049606802</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042332911760441</v>
+        <v>1.038633283537212</v>
       </c>
       <c r="J15">
-        <v>1.024993650012652</v>
+        <v>1.040802564612618</v>
       </c>
       <c r="K15">
-        <v>1.029324146075909</v>
+        <v>1.040702195870726</v>
       </c>
       <c r="L15">
-        <v>1.025998633359716</v>
+        <v>1.046282378025463</v>
       </c>
       <c r="M15">
-        <v>1.030767524886829</v>
+        <v>1.055267140472716</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9982605730430977</v>
+        <v>1.034775834040809</v>
       </c>
       <c r="D16">
-        <v>1.016600930805851</v>
+        <v>1.037530351550986</v>
       </c>
       <c r="E16">
-        <v>1.013570880016278</v>
+        <v>1.043220720537265</v>
       </c>
       <c r="F16">
-        <v>1.018721577246468</v>
+        <v>1.052304017938913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043097206084343</v>
+        <v>1.038751932725752</v>
       </c>
       <c r="J16">
-        <v>1.026466367171689</v>
+        <v>1.041100919182329</v>
       </c>
       <c r="K16">
-        <v>1.030640965585172</v>
+        <v>1.040962418881775</v>
       </c>
       <c r="L16">
-        <v>1.027663384984223</v>
+        <v>1.046632695030962</v>
       </c>
       <c r="M16">
-        <v>1.032725129609442</v>
+        <v>1.055684414726656</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9999180830285063</v>
+        <v>1.035100435758285</v>
       </c>
       <c r="D17">
-        <v>1.017753329774135</v>
+        <v>1.037765912549448</v>
       </c>
       <c r="E17">
-        <v>1.014945431124789</v>
+        <v>1.043512699863635</v>
       </c>
       <c r="F17">
-        <v>1.020278611122055</v>
+        <v>1.052637491163382</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043569009458864</v>
+        <v>1.038826093388207</v>
       </c>
       <c r="J17">
-        <v>1.027379409548851</v>
+        <v>1.041288084821106</v>
       </c>
       <c r="K17">
-        <v>1.03145707810428</v>
+        <v>1.041125610157616</v>
       </c>
       <c r="L17">
-        <v>1.028696390859797</v>
+        <v>1.046852565665231</v>
       </c>
       <c r="M17">
-        <v>1.033940185785581</v>
+        <v>1.055946356739853</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000878305846413</v>
+        <v>1.035289855833303</v>
       </c>
       <c r="D18">
-        <v>1.018421448975496</v>
+        <v>1.037903380193526</v>
       </c>
       <c r="E18">
-        <v>1.015742536069184</v>
+        <v>1.043683131142098</v>
       </c>
       <c r="F18">
-        <v>1.021181495107303</v>
+        <v>1.052832147848979</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043841501178487</v>
+        <v>1.03886925437128</v>
       </c>
       <c r="J18">
-        <v>1.027908172859394</v>
+        <v>1.041397260604269</v>
       </c>
       <c r="K18">
-        <v>1.031929603826653</v>
+        <v>1.041220782135417</v>
       </c>
       <c r="L18">
-        <v>1.0292949551573</v>
+        <v>1.046980857420805</v>
       </c>
       <c r="M18">
-        <v>1.034644357363013</v>
+        <v>1.056099213491026</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001204616314048</v>
+        <v>1.035354457614293</v>
       </c>
       <c r="D19">
-        <v>1.01864858019459</v>
+        <v>1.03795026473864</v>
       </c>
       <c r="E19">
-        <v>1.016013549697073</v>
+        <v>1.043741264892185</v>
       </c>
       <c r="F19">
-        <v>1.021488466396038</v>
+        <v>1.052898545687065</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043933959211539</v>
+        <v>1.038883954900726</v>
       </c>
       <c r="J19">
-        <v>1.028087830228803</v>
+        <v>1.04143448757228</v>
       </c>
       <c r="K19">
-        <v>1.032090135568169</v>
+        <v>1.041253230782778</v>
       </c>
       <c r="L19">
-        <v>1.029498384347304</v>
+        <v>1.047024609169818</v>
       </c>
       <c r="M19">
-        <v>1.034883698949578</v>
+        <v>1.056151345582888</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9997409314151847</v>
+        <v>1.035065600221808</v>
       </c>
       <c r="D20">
-        <v>1.017630109615665</v>
+        <v>1.037740631943937</v>
       </c>
       <c r="E20">
-        <v>1.014798437837359</v>
+        <v>1.04348136033525</v>
       </c>
       <c r="F20">
-        <v>1.020112107841899</v>
+        <v>1.052601697381786</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043518669963246</v>
+        <v>1.038818146542044</v>
       </c>
       <c r="J20">
-        <v>1.027281843375872</v>
+        <v>1.041268003168603</v>
       </c>
       <c r="K20">
-        <v>1.031369880336238</v>
+        <v>1.041108102792808</v>
       </c>
       <c r="L20">
-        <v>1.028585971643509</v>
+        <v>1.046828970968327</v>
       </c>
       <c r="M20">
-        <v>1.033810294566757</v>
+        <v>1.055918245545951</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9949039732508942</v>
+        <v>1.034127504340033</v>
       </c>
       <c r="D21">
-        <v>1.014270708209189</v>
+        <v>1.037059909356268</v>
       </c>
       <c r="E21">
-        <v>1.010792629214838</v>
+        <v>1.042637855220606</v>
       </c>
       <c r="F21">
-        <v>1.015574183284597</v>
+        <v>1.05163835182456</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042136455530309</v>
+        <v>1.038603074323604</v>
       </c>
       <c r="J21">
-        <v>1.0246163132692</v>
+        <v>1.040726810756925</v>
       </c>
       <c r="K21">
-        <v>1.028986669205655</v>
+        <v>1.040636107380124</v>
       </c>
       <c r="L21">
-        <v>1.025572376684826</v>
+        <v>1.046193463789955</v>
       </c>
       <c r="M21">
-        <v>1.030266385563332</v>
+        <v>1.055161246167844</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9918001264721878</v>
+        <v>1.033538467314367</v>
       </c>
       <c r="D22">
-        <v>1.012120155529403</v>
+        <v>1.036632545306829</v>
       </c>
       <c r="E22">
-        <v>1.008229852730007</v>
+        <v>1.042108646628636</v>
       </c>
       <c r="F22">
-        <v>1.012670495895074</v>
+        <v>1.051034000196324</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041242125104735</v>
+        <v>1.038466992920038</v>
       </c>
       <c r="J22">
-        <v>1.022904487382289</v>
+        <v>1.040386597857716</v>
       </c>
       <c r="K22">
-        <v>1.027455273712726</v>
+        <v>1.040339221171757</v>
       </c>
       <c r="L22">
-        <v>1.02364001882374</v>
+        <v>1.045794310417573</v>
       </c>
       <c r="M22">
-        <v>1.027995058390311</v>
+        <v>1.054685936741194</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9934516458676358</v>
+        <v>1.033850652372672</v>
       </c>
       <c r="D23">
-        <v>1.013263932143829</v>
+        <v>1.036859038441648</v>
       </c>
       <c r="E23">
-        <v>1.009592730507428</v>
+        <v>1.042389081737478</v>
       </c>
       <c r="F23">
-        <v>1.014214718921695</v>
+        <v>1.051354250544225</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04171866895524</v>
+        <v>1.038539213234935</v>
       </c>
       <c r="J23">
-        <v>1.023815445848472</v>
+        <v>1.040566945378897</v>
       </c>
       <c r="K23">
-        <v>1.028270294133508</v>
+        <v>1.040496617492864</v>
       </c>
       <c r="L23">
-        <v>1.024668052763207</v>
+        <v>1.046005869310612</v>
       </c>
       <c r="M23">
-        <v>1.029203327430844</v>
+        <v>1.054937845441781</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9998209988862602</v>
+        <v>1.035081340637651</v>
       </c>
       <c r="D24">
-        <v>1.017685800015887</v>
+        <v>1.037752054948731</v>
       </c>
       <c r="E24">
-        <v>1.014864872115361</v>
+        <v>1.043495520934157</v>
       </c>
       <c r="F24">
-        <v>1.02018735988146</v>
+        <v>1.052617870595802</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043541424558657</v>
+        <v>1.038821737675473</v>
       </c>
       <c r="J24">
-        <v>1.027325941052163</v>
+        <v>1.041277077186965</v>
       </c>
       <c r="K24">
-        <v>1.031409292051997</v>
+        <v>1.041116013663053</v>
       </c>
       <c r="L24">
-        <v>1.028635877585991</v>
+        <v>1.046839632257591</v>
       </c>
       <c r="M24">
-        <v>1.033869000856846</v>
+        <v>1.05593094756712</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006955881072377</v>
+        <v>1.036512829141361</v>
       </c>
       <c r="D25">
-        <v>1.022658853555325</v>
+        <v>1.038791047064499</v>
       </c>
       <c r="E25">
-        <v>1.020801613679133</v>
+        <v>1.044784365868615</v>
       </c>
       <c r="F25">
-        <v>1.026911277306155</v>
+        <v>1.054090005983509</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045550999254856</v>
+        <v>1.03914583574861</v>
       </c>
       <c r="J25">
-        <v>1.031251398442666</v>
+        <v>1.042101346105099</v>
       </c>
       <c r="K25">
-        <v>1.0349153158712</v>
+        <v>1.041834205911692</v>
       </c>
       <c r="L25">
-        <v>1.0330853708693</v>
+        <v>1.047808924977457</v>
       </c>
       <c r="M25">
-        <v>1.039105715436754</v>
+        <v>1.057086143002653</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_123/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_123/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037657214017382</v>
+        <v>1.012456484939476</v>
       </c>
       <c r="D2">
-        <v>1.03962185197878</v>
+        <v>1.026506605570064</v>
       </c>
       <c r="E2">
-        <v>1.045816212972785</v>
+        <v>1.025401734843747</v>
       </c>
       <c r="F2">
-        <v>1.055268759670722</v>
+        <v>1.032120463642901</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039401280020186</v>
+        <v>1.047073127617185</v>
       </c>
       <c r="J2">
-        <v>1.042758894051824</v>
+        <v>1.034270902469613</v>
       </c>
       <c r="K2">
-        <v>1.042406517694913</v>
+        <v>1.037608610972352</v>
       </c>
       <c r="L2">
-        <v>1.048583392152967</v>
+        <v>1.036518172354056</v>
       </c>
       <c r="M2">
-        <v>1.058009683342602</v>
+        <v>1.04314973640804</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038489636446298</v>
+        <v>1.016347715534653</v>
       </c>
       <c r="D3">
-        <v>1.040226279985468</v>
+        <v>1.029235636119952</v>
       </c>
       <c r="E3">
-        <v>1.046567634715181</v>
+        <v>1.028668669787651</v>
       </c>
       <c r="F3">
-        <v>1.056127261425557</v>
+        <v>1.035819635003061</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039584969961564</v>
+        <v>1.048133570391481</v>
       </c>
       <c r="J3">
-        <v>1.043236374408762</v>
+        <v>1.03640243334035</v>
       </c>
       <c r="K3">
-        <v>1.042821744567824</v>
+        <v>1.039507623082904</v>
       </c>
       <c r="L3">
-        <v>1.049146487206007</v>
+        <v>1.038947413640064</v>
       </c>
       <c r="M3">
-        <v>1.058681477803562</v>
+        <v>1.046013826806027</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039028952526641</v>
+        <v>1.018820416292622</v>
       </c>
       <c r="D4">
-        <v>1.040617925214927</v>
+        <v>1.030972788732035</v>
       </c>
       <c r="E4">
-        <v>1.047054865859398</v>
+        <v>1.030750328729982</v>
       </c>
       <c r="F4">
-        <v>1.056683970986044</v>
+        <v>1.038176629179638</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039702999176619</v>
+        <v>1.048799666530669</v>
       </c>
       <c r="J4">
-        <v>1.043545347898728</v>
+        <v>1.037754645912556</v>
       </c>
       <c r="K4">
-        <v>1.043090267475393</v>
+        <v>1.040711235927657</v>
       </c>
       <c r="L4">
-        <v>1.049511191686241</v>
+        <v>1.040491266443271</v>
       </c>
       <c r="M4">
-        <v>1.059116729328961</v>
+        <v>1.047835135823266</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039255842842392</v>
+        <v>1.019849450591992</v>
       </c>
       <c r="D5">
-        <v>1.040782700347064</v>
+        <v>1.031696391596046</v>
       </c>
       <c r="E5">
-        <v>1.047259937991737</v>
+        <v>1.031617957215047</v>
       </c>
       <c r="F5">
-        <v>1.056918297341616</v>
+        <v>1.039159006008419</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039752419123312</v>
+        <v>1.049074974144054</v>
       </c>
       <c r="J5">
-        <v>1.043675241870247</v>
+        <v>1.038316806422702</v>
       </c>
       <c r="K5">
-        <v>1.043203115753319</v>
+        <v>1.041211347923746</v>
       </c>
       <c r="L5">
-        <v>1.049664594404024</v>
+        <v>1.041133768161081</v>
       </c>
       <c r="M5">
-        <v>1.0592998403987</v>
+        <v>1.048593372888184</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039293948165491</v>
+        <v>1.020021624187377</v>
       </c>
       <c r="D6">
-        <v>1.040810374240537</v>
+        <v>1.031817500076989</v>
       </c>
       <c r="E6">
-        <v>1.0472943845334</v>
+        <v>1.031763202338444</v>
       </c>
       <c r="F6">
-        <v>1.056957658460994</v>
+        <v>1.039323460195375</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039760705228033</v>
+        <v>1.049120925264073</v>
       </c>
       <c r="J6">
-        <v>1.043697051690712</v>
+        <v>1.038410830216104</v>
       </c>
       <c r="K6">
-        <v>1.043222061166899</v>
+        <v>1.041294977687014</v>
       </c>
       <c r="L6">
-        <v>1.049690356099561</v>
+        <v>1.041241268858667</v>
       </c>
       <c r="M6">
-        <v>1.05933059320536</v>
+        <v>1.048720253745679</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039031983612368</v>
+        <v>1.018834207088516</v>
       </c>
       <c r="D7">
-        <v>1.04062012644964</v>
+        <v>1.030982483628791</v>
       </c>
       <c r="E7">
-        <v>1.047057605101972</v>
+        <v>1.030761951207067</v>
       </c>
       <c r="F7">
-        <v>1.056687100946338</v>
+        <v>1.038189788818695</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039703660313302</v>
+        <v>1.048803363632949</v>
       </c>
       <c r="J7">
-        <v>1.043547083544006</v>
+        <v>1.03776218211172</v>
       </c>
       <c r="K7">
-        <v>1.043091775513446</v>
+        <v>1.040717941397854</v>
       </c>
       <c r="L7">
-        <v>1.049513241144624</v>
+        <v>1.040499877027997</v>
       </c>
       <c r="M7">
-        <v>1.059119175554113</v>
+        <v>1.047845296393587</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037938392608946</v>
+        <v>1.01378110271865</v>
       </c>
       <c r="D8">
-        <v>1.039826008399547</v>
+        <v>1.027434948678458</v>
       </c>
       <c r="E8">
-        <v>1.046069948995897</v>
+        <v>1.026512629326183</v>
       </c>
       <c r="F8">
-        <v>1.055558644379338</v>
+        <v>1.033378359233148</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039463530413806</v>
+        <v>1.047435721556376</v>
       </c>
       <c r="J8">
-        <v>1.042920257554019</v>
+        <v>1.034996959529026</v>
       </c>
       <c r="K8">
-        <v>1.042546877242584</v>
+        <v>1.038255689878306</v>
       </c>
       <c r="L8">
-        <v>1.048773620578193</v>
+        <v>1.037345057720719</v>
       </c>
       <c r="M8">
-        <v>1.05823660337743</v>
+        <v>1.044124411989628</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036016652681914</v>
+        <v>1.004515352785912</v>
       </c>
       <c r="D9">
-        <v>1.038430884260314</v>
+        <v>1.02095548711456</v>
       </c>
       <c r="E9">
-        <v>1.044337399349817</v>
+        <v>1.01876715784535</v>
       </c>
       <c r="F9">
-        <v>1.053579449988949</v>
+        <v>1.024607231434149</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039034062500034</v>
+        <v>1.044867800400661</v>
       </c>
       <c r="J9">
-        <v>1.041815857817631</v>
+        <v>1.029909663735495</v>
       </c>
       <c r="K9">
-        <v>1.041585552519121</v>
+        <v>1.033717485125709</v>
       </c>
       <c r="L9">
-        <v>1.04747301719504</v>
+        <v>1.031562916118519</v>
       </c>
       <c r="M9">
-        <v>1.056685727941889</v>
+        <v>1.037313301929926</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.0347391625163</v>
+        <v>0.9980723576506522</v>
       </c>
       <c r="D10">
-        <v>1.037503740256265</v>
+        <v>1.016470143894244</v>
       </c>
       <c r="E10">
-        <v>1.04318774097839</v>
+        <v>1.013414906155415</v>
       </c>
       <c r="F10">
-        <v>1.052266352246686</v>
+        <v>1.018544890449264</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038743538928407</v>
+        <v>1.043043518976288</v>
       </c>
       <c r="J10">
-        <v>1.041079768402846</v>
+        <v>1.026362665094481</v>
       </c>
       <c r="K10">
-        <v>1.040943974733442</v>
+        <v>1.03054825882991</v>
       </c>
       <c r="L10">
-        <v>1.046607853648552</v>
+        <v>1.027546102175418</v>
       </c>
       <c r="M10">
-        <v>1.055654822324959</v>
+        <v>1.032587193899813</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034186886995081</v>
+        <v>0.9952139961495151</v>
       </c>
       <c r="D11">
-        <v>1.037102996137232</v>
+        <v>1.014485735710314</v>
       </c>
       <c r="E11">
-        <v>1.042691224849923</v>
+        <v>1.011048937589088</v>
       </c>
       <c r="F11">
-        <v>1.051699301326371</v>
+        <v>1.01586456522056</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038616749192022</v>
+        <v>1.042225479317406</v>
       </c>
       <c r="J11">
-        <v>1.040761091981188</v>
+        <v>1.024787242852381</v>
       </c>
       <c r="K11">
-        <v>1.040666015512842</v>
+        <v>1.029139546774016</v>
       </c>
       <c r="L11">
-        <v>1.046233698886381</v>
+        <v>1.025765452432852</v>
       </c>
       <c r="M11">
-        <v>1.055209164296703</v>
+        <v>1.030493374861885</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.033981882132093</v>
+        <v>0.9941414892518363</v>
       </c>
       <c r="D12">
-        <v>1.036954251225275</v>
+        <v>1.013742031692736</v>
       </c>
       <c r="E12">
-        <v>1.042506992928689</v>
+        <v>1.010162508519086</v>
       </c>
       <c r="F12">
-        <v>1.051488905136042</v>
+        <v>1.014860278181157</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038569505658709</v>
+        <v>1.041917266366156</v>
       </c>
       <c r="J12">
-        <v>1.040642730978104</v>
+        <v>1.024195878090753</v>
       </c>
       <c r="K12">
-        <v>1.040562747548167</v>
+        <v>1.028610608213139</v>
       </c>
       <c r="L12">
-        <v>1.046094792784868</v>
+        <v>1.025097566861168</v>
       </c>
       <c r="M12">
-        <v>1.055043738591739</v>
+        <v>1.029708211001429</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034025850240929</v>
+        <v>0.9943720418563969</v>
       </c>
       <c r="D13">
-        <v>1.036986152538651</v>
+        <v>1.013901862062412</v>
       </c>
       <c r="E13">
-        <v>1.042546502388172</v>
+        <v>1.01035300011934</v>
       </c>
       <c r="F13">
-        <v>1.051534025312192</v>
+        <v>1.015076101091154</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038579646250792</v>
+        <v>1.041983578452908</v>
       </c>
       <c r="J13">
-        <v>1.040668119358979</v>
+        <v>1.024323011647472</v>
       </c>
       <c r="K13">
-        <v>1.040584899831161</v>
+        <v>1.028724327858195</v>
       </c>
       <c r="L13">
-        <v>1.046124585349218</v>
+        <v>1.025241127863899</v>
       </c>
       <c r="M13">
-        <v>1.055079217892445</v>
+        <v>1.029876972495241</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034169938468171</v>
+        <v>0.9951255653382752</v>
       </c>
       <c r="D14">
-        <v>1.037090698596249</v>
+        <v>1.014424397243428</v>
       </c>
       <c r="E14">
-        <v>1.042675992166666</v>
+        <v>1.010975822157977</v>
       </c>
       <c r="F14">
-        <v>1.051681905171796</v>
+        <v>1.015781730233188</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038612847045454</v>
+        <v>1.042200092006863</v>
       </c>
       <c r="J14">
-        <v>1.040751308020078</v>
+        <v>1.024738488026324</v>
       </c>
       <c r="K14">
-        <v>1.040657479782593</v>
+        <v>1.029095941672086</v>
       </c>
       <c r="L14">
-        <v>1.046222215394603</v>
+        <v>1.02571037841475</v>
       </c>
       <c r="M14">
-        <v>1.055195487871212</v>
+        <v>1.030428626303695</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034258733901729</v>
+        <v>0.9955883917994579</v>
       </c>
       <c r="D15">
-        <v>1.037155127410193</v>
+        <v>1.014745464895491</v>
       </c>
       <c r="E15">
-        <v>1.042755801159342</v>
+        <v>1.011358545717094</v>
       </c>
       <c r="F15">
-        <v>1.051773049606802</v>
+        <v>1.01621532750978</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038633283537212</v>
+        <v>1.04233291176044</v>
       </c>
       <c r="J15">
-        <v>1.040802564612618</v>
+        <v>1.02499365001265</v>
       </c>
       <c r="K15">
-        <v>1.040702195870726</v>
+        <v>1.029324146075908</v>
       </c>
       <c r="L15">
-        <v>1.046282378025463</v>
+        <v>1.025998633359714</v>
       </c>
       <c r="M15">
-        <v>1.055267140472716</v>
+        <v>1.030767524886828</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034775834040809</v>
+        <v>0.9982605730430977</v>
       </c>
       <c r="D16">
-        <v>1.037530351550986</v>
+        <v>1.016600930805851</v>
       </c>
       <c r="E16">
-        <v>1.043220720537265</v>
+        <v>1.013570880016278</v>
       </c>
       <c r="F16">
-        <v>1.052304017938913</v>
+        <v>1.018721577246468</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038751932725752</v>
+        <v>1.043097206084343</v>
       </c>
       <c r="J16">
-        <v>1.041100919182329</v>
+        <v>1.026466367171689</v>
       </c>
       <c r="K16">
-        <v>1.040962418881775</v>
+        <v>1.030640965585172</v>
       </c>
       <c r="L16">
-        <v>1.046632695030962</v>
+        <v>1.027663384984222</v>
       </c>
       <c r="M16">
-        <v>1.055684414726656</v>
+        <v>1.032725129609442</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.035100435758285</v>
+        <v>0.9999180830285064</v>
       </c>
       <c r="D17">
-        <v>1.037765912549448</v>
+        <v>1.017753329774135</v>
       </c>
       <c r="E17">
-        <v>1.043512699863635</v>
+        <v>1.014945431124789</v>
       </c>
       <c r="F17">
-        <v>1.052637491163382</v>
+        <v>1.020278611122055</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038826093388207</v>
+        <v>1.043569009458864</v>
       </c>
       <c r="J17">
-        <v>1.041288084821106</v>
+        <v>1.027379409548851</v>
       </c>
       <c r="K17">
-        <v>1.041125610157616</v>
+        <v>1.03145707810428</v>
       </c>
       <c r="L17">
-        <v>1.046852565665231</v>
+        <v>1.028696390859797</v>
       </c>
       <c r="M17">
-        <v>1.055946356739853</v>
+        <v>1.033940185785582</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.035289855833303</v>
+        <v>1.000878305846413</v>
       </c>
       <c r="D18">
-        <v>1.037903380193526</v>
+        <v>1.018421448975496</v>
       </c>
       <c r="E18">
-        <v>1.043683131142098</v>
+        <v>1.015742536069185</v>
       </c>
       <c r="F18">
-        <v>1.052832147848979</v>
+        <v>1.021181495107303</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03886925437128</v>
+        <v>1.043841501178487</v>
       </c>
       <c r="J18">
-        <v>1.041397260604269</v>
+        <v>1.027908172859394</v>
       </c>
       <c r="K18">
-        <v>1.041220782135417</v>
+        <v>1.031929603826653</v>
       </c>
       <c r="L18">
-        <v>1.046980857420805</v>
+        <v>1.0292949551573</v>
       </c>
       <c r="M18">
-        <v>1.056099213491026</v>
+        <v>1.034644357363013</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.035354457614293</v>
+        <v>1.001204616314047</v>
       </c>
       <c r="D19">
-        <v>1.03795026473864</v>
+        <v>1.018648580194589</v>
       </c>
       <c r="E19">
-        <v>1.043741264892185</v>
+        <v>1.016013549697072</v>
       </c>
       <c r="F19">
-        <v>1.052898545687065</v>
+        <v>1.021488466396037</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038883954900726</v>
+        <v>1.043933959211539</v>
       </c>
       <c r="J19">
-        <v>1.04143448757228</v>
+        <v>1.028087830228803</v>
       </c>
       <c r="K19">
-        <v>1.041253230782778</v>
+        <v>1.032090135568168</v>
       </c>
       <c r="L19">
-        <v>1.047024609169818</v>
+        <v>1.029498384347304</v>
       </c>
       <c r="M19">
-        <v>1.056151345582888</v>
+        <v>1.034883698949578</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.035065600221808</v>
+        <v>0.9997409314151837</v>
       </c>
       <c r="D20">
-        <v>1.037740631943937</v>
+        <v>1.017630109615664</v>
       </c>
       <c r="E20">
-        <v>1.04348136033525</v>
+        <v>1.014798437837358</v>
       </c>
       <c r="F20">
-        <v>1.052601697381786</v>
+        <v>1.020112107841898</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038818146542044</v>
+        <v>1.043518669963246</v>
       </c>
       <c r="J20">
-        <v>1.041268003168603</v>
+        <v>1.027281843375871</v>
       </c>
       <c r="K20">
-        <v>1.041108102792808</v>
+        <v>1.031369880336238</v>
       </c>
       <c r="L20">
-        <v>1.046828970968327</v>
+        <v>1.028585971643508</v>
       </c>
       <c r="M20">
-        <v>1.055918245545951</v>
+        <v>1.033810294566757</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034127504340033</v>
+        <v>0.9949039732508945</v>
       </c>
       <c r="D21">
-        <v>1.037059909356268</v>
+        <v>1.01427070820919</v>
       </c>
       <c r="E21">
-        <v>1.042637855220606</v>
+        <v>1.010792629214838</v>
       </c>
       <c r="F21">
-        <v>1.05163835182456</v>
+        <v>1.015574183284598</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038603074323604</v>
+        <v>1.042136455530309</v>
       </c>
       <c r="J21">
-        <v>1.040726810756925</v>
+        <v>1.0246163132692</v>
       </c>
       <c r="K21">
-        <v>1.040636107380124</v>
+        <v>1.028986669205655</v>
       </c>
       <c r="L21">
-        <v>1.046193463789955</v>
+        <v>1.025572376684826</v>
       </c>
       <c r="M21">
-        <v>1.055161246167844</v>
+        <v>1.030266385563332</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033538467314367</v>
+        <v>0.9918001264721868</v>
       </c>
       <c r="D22">
-        <v>1.036632545306829</v>
+        <v>1.012120155529403</v>
       </c>
       <c r="E22">
-        <v>1.042108646628636</v>
+        <v>1.008229852730007</v>
       </c>
       <c r="F22">
-        <v>1.051034000196324</v>
+        <v>1.012670495895074</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038466992920038</v>
+        <v>1.041242125104735</v>
       </c>
       <c r="J22">
-        <v>1.040386597857716</v>
+        <v>1.022904487382289</v>
       </c>
       <c r="K22">
-        <v>1.040339221171757</v>
+        <v>1.027455273712725</v>
       </c>
       <c r="L22">
-        <v>1.045794310417573</v>
+        <v>1.023640018823739</v>
       </c>
       <c r="M22">
-        <v>1.054685936741194</v>
+        <v>1.02799505839031</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033850652372672</v>
+        <v>0.9934516458676351</v>
       </c>
       <c r="D23">
-        <v>1.036859038441648</v>
+        <v>1.013263932143829</v>
       </c>
       <c r="E23">
-        <v>1.042389081737478</v>
+        <v>1.009592730507427</v>
       </c>
       <c r="F23">
-        <v>1.051354250544225</v>
+        <v>1.014214718921694</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038539213234935</v>
+        <v>1.04171866895524</v>
       </c>
       <c r="J23">
-        <v>1.040566945378897</v>
+        <v>1.023815445848471</v>
       </c>
       <c r="K23">
-        <v>1.040496617492864</v>
+        <v>1.028270294133508</v>
       </c>
       <c r="L23">
-        <v>1.046005869310612</v>
+        <v>1.024668052763206</v>
       </c>
       <c r="M23">
-        <v>1.054937845441781</v>
+        <v>1.029203327430843</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.035081340637651</v>
+        <v>0.9998209988862596</v>
       </c>
       <c r="D24">
-        <v>1.037752054948731</v>
+        <v>1.017685800015886</v>
       </c>
       <c r="E24">
-        <v>1.043495520934157</v>
+        <v>1.014864872115361</v>
       </c>
       <c r="F24">
-        <v>1.052617870595802</v>
+        <v>1.020187359881459</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038821737675473</v>
+        <v>1.043541424558657</v>
       </c>
       <c r="J24">
-        <v>1.041277077186965</v>
+        <v>1.027325941052163</v>
       </c>
       <c r="K24">
-        <v>1.041116013663053</v>
+        <v>1.031409292051996</v>
       </c>
       <c r="L24">
-        <v>1.046839632257591</v>
+        <v>1.02863587758599</v>
       </c>
       <c r="M24">
-        <v>1.05593094756712</v>
+        <v>1.033869000856845</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036512829141361</v>
+        <v>1.006955881072377</v>
       </c>
       <c r="D25">
-        <v>1.038791047064499</v>
+        <v>1.022658853555325</v>
       </c>
       <c r="E25">
-        <v>1.044784365868615</v>
+        <v>1.020801613679132</v>
       </c>
       <c r="F25">
-        <v>1.054090005983509</v>
+        <v>1.026911277306154</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03914583574861</v>
+        <v>1.045550999254855</v>
       </c>
       <c r="J25">
-        <v>1.042101346105099</v>
+        <v>1.031251398442665</v>
       </c>
       <c r="K25">
-        <v>1.041834205911692</v>
+        <v>1.034915315871199</v>
       </c>
       <c r="L25">
-        <v>1.047808924977457</v>
+        <v>1.033085370869299</v>
       </c>
       <c r="M25">
-        <v>1.057086143002653</v>
+        <v>1.039105715436754</v>
       </c>
     </row>
   </sheetData>
